--- a/models/US_with_CBO_OOS/data/US_info.xlsx
+++ b/models/US_with_CBO_OOS/data/US_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_no_core_rt/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_with_CBO_OOS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0FB512-575F-7047-A748-4F0225EB346B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F67343E-5E4A-1B49-AB5B-4A79306ADC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Prof Forecasters: Median: 1-Year-Ahead CPI Inflation Expectation (%)</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Compute SPF expectation in levels, starting from the growth rates (wrt the variable specified in TRANSF_ANNEX)</t>
+  </si>
+  <si>
+    <t>CBO</t>
+  </si>
+  <si>
+    <t>Real GDP cycle computed from the Congressional Budget Office (SA, Bil.Chn.2012$)</t>
   </si>
 </sst>
 </file>
@@ -568,11 +574,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK9"/>
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -689,16 +693,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -706,15 +710,32 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -732,9 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FDC31C-0E1C-1D4D-9192-FF775FADE936}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>

--- a/models/US_with_CBO_OOS/data/US_info.xlsx
+++ b/models/US_with_CBO_OOS/data/US_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_with_CBO_OOS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F67343E-5E4A-1B49-AB5B-4A79306ADC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F1387D-24F4-5F46-B1C9-30889F72BBE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Prof Forecasters: Median: 1-Year-Ahead CPI Inflation Expectation (%)</t>
   </si>
@@ -104,9 +104,6 @@
     <t>TRANSF</t>
   </si>
   <si>
-    <t>TRANSF_ANNEX</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -129,6 +126,12 @@
   </si>
   <si>
     <t>Real GDP cycle computed from the Congressional Budget Office (SA, Bil.Chn.2012$)</t>
+  </si>
+  <si>
+    <t>TRANSF_ARG1</t>
+  </si>
+  <si>
+    <t>TRANSF_ARG2</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -232,6 +235,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -582,12 +588,12 @@
   <cols>
     <col min="1" max="1" width="88.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.83203125" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -601,10 +607,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -632,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -646,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -660,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -674,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -687,16 +696,16 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>7824.2470000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -704,11 +713,14 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="10">
+        <v>7952.6033019999995</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -721,11 +733,11 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -765,7 +777,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -773,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -781,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -789,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -797,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -805,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
